--- a/정리.xlsx
+++ b/정리.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>문제</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -136,6 +136,25 @@
   </si>
   <si>
     <t>알고리즘이 이게 맞을까… 너무 오래걸림…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10보다 작은 자연수 중에서 3 또는 5의 배수는 3, 5, 6, 9 이고, 이것을 모두 더하면 23입니다.
+1000보다 작은 자연수 중에서 3 또는 5의 배수를 모두 더하면 얼마일까요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000보다 작은수니까 i&lt;=1000 이 아니라 i&lt;1000 이지…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피보나치 수열의 각 항은 바로 앞의 항 두 개를 더한 것이 됩니다. 1과 2로 시작하는 경우 이 수열은 아래와 같습니다.
+1, 2, 3, 5, 8, 13, 21, 34, 55, 89, ...
+짝수이면서 4백만 이하인 모든 항을 더하면 얼마가 됩니까?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>While조건의 꺽쇠 방향…</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -232,11 +251,11 @@
   </cellStyles>
   <dxfs count="5">
     <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="176" formatCode="#&quot;분&quot;"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -274,8 +293,8 @@
   <tableColumns count="4">
     <tableColumn id="1" name="번호" dataDxfId="3"/>
     <tableColumn id="2" name="문제" dataDxfId="2"/>
-    <tableColumn id="3" name="시간" dataDxfId="0"/>
-    <tableColumn id="4" name="피드백" dataDxfId="1"/>
+    <tableColumn id="3" name="시간" dataDxfId="1"/>
+    <tableColumn id="4" name="피드백" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -570,8 +589,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -600,13 +619,31 @@
       <c r="A3" s="3">
         <v>1</v>
       </c>
+      <c r="B3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="7">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="7">
+        <v>8</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -614,7 +651,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="7">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>16</v>
@@ -628,7 +665,7 @@
         <v>14</v>
       </c>
       <c r="C6" s="7">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>15</v>

--- a/정리.xlsx
+++ b/정리.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>문제</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -155,6 +155,37 @@
   </si>
   <si>
     <t>While조건의 꺽쇠 방향…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 배열에서 방향을 증가시킬 때, i와 j를 어떻게 1씩 올려야하는지 좀더 깊게 생각...
+2. 이 로직이 최선일까나..?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아래와 같은 20×20 격자가 있습니다.
+08 02 22 97 38 15 00 40 00 75 04 05 07 78 52 12 50 77 91 08
+49 49 99 40 17 81 18 57 60 87 17 40 98 43 69 48 04 56 62 00
+81 49 31 73 55 79 14 29 93 71 40 67 53 88 30 03 49 13 36 65
+52 70 95 23 04 60 11 42 69 24 68 56 01 32 56 71 37 02 36 91
+22 31 16 71 51 67 63 89 41 92 36 54 22 40 40 28 66 33 13 80
+24 47 32 60 99 03 45 02 44 75 33 53 78 36 84 20 35 17 12 50
+32 98 81 28 64 23 67 10 26 38 40 67 59 54 70 66 18 38 64 70
+67 26 20 68 02 62 12 20 95 63 94 39 63 08 40 91 66 49 94 21
+24 55 58 05 66 73 99 26 97 17 78 78 96 83 14 88 34 89 63 72
+21 36 23 09 75 00 76 44 20 45 35 14 00 61 33 97 34 31 33 95
+78 17 53 28 22 75 31 67 15 94 03 80 04 62 16 14 09 53 56 92
+16 39 05 42 96 35 31 47 55 58 88 24 00 17 54 24 36 29 85 57
+86 56 00 48 35 71 89 07 05 44 44 37 44 60 21 58 51 54 17 58
+19 80 81 68 05 94 47 69 28 73 92 13 86 52 17 77 04 89 55 40
+04 52 08 83 97 35 99 16 07 97 57 32 16 26 26 79 33 27 98 66
+88 36 68 87 57 62 20 72 03 46 33 67 46 55 12 32 63 93 53 69
+04 42 16 73 38 25 39 11 24 94 72 18 08 46 29 32 40 62 76 36
+20 69 36 41 72 30 23 88 34 62 99 69 82 67 59 85 74 04 36 16
+20 73 35 29 78 31 90 01 74 31 49 71 48 86 81 16 23 57 05 54
+01 70 54 71 83 51 54 69 16 92 33 48 61 43 52 01 89 19 67 48
+위에서 대각선 방향으로 연속된 붉은 숫자 네 개의 곱은 26 × 63 × 78 × 14 = 1788696 입니다.
+그러면 수평, 수직, 또는 대각선 방향으로 연속된 숫자 네 개의 곱 중 최대값은 얼마입니까?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -288,8 +319,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="표2" displayName="표2" ref="A2:D12" totalsRowShown="0" headerRowDxfId="4">
-  <autoFilter ref="A2:D12"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="표2" displayName="표2" ref="A2:D13" totalsRowShown="0" headerRowDxfId="4">
+  <autoFilter ref="A2:D13"/>
   <tableColumns count="4">
     <tableColumn id="1" name="번호" dataDxfId="3"/>
     <tableColumn id="2" name="문제" dataDxfId="2"/>
@@ -587,10 +618,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:D12"/>
+  <dimension ref="A2:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -753,6 +784,20 @@
       </c>
       <c r="D12" s="2" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="7">
+        <v>30</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/정리.xlsx
+++ b/정리.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>문제</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -186,6 +186,18 @@
 01 70 54 71 83 51 54 69 16 92 33 48 61 43 52 01 89 19 67 48
 위에서 대각선 방향으로 연속된 붉은 숫자 네 개의 곱은 26 × 63 × 78 × 14 = 1788696 입니다.
 그러면 수평, 수직, 또는 대각선 방향으로 연속된 숫자 네 개의 곱 중 최대값은 얼마입니까?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>온라인 뱅킹에서 흔히 쓰이는 보안 기법 중에는, 비밀번호에 포함된 숫자를 랜덤하게 세 개 입력하도록 하는 것이 있습니다. 
+예를 들어 531278이라는 비밀번호에 대해서 2번째, 3번째, 5번째 숫자를 입력하도록 하는 식입니다. 이 때 올바른 입력은 317이 됩니다.
+첨부한 텍스트 파일 keylog.txt에는 로그인에 성공한 어떤 사용자의 입력 기록이 50건 담겨져 있습니다. (비밀번호의 길이는 알 수 없습니다)
+3개의 숫자는 항상 앞쪽부터 순서대로 요청된다고 할 때, 위의 접속 기록에서 알아낼 수 있는 가장 짧은 길이의 비밀번호는 무엇입니까?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 처음부터 로직을 잘못 세움... 정규표현식 쓰겠다고 뻘짓하고... 결국 1씩 올려가며 해결..
+2. 앞자리가 7이란걸 가정해서 그나마 몇분에 걸려 정답 도출...</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -319,8 +331,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="표2" displayName="표2" ref="A2:D13" totalsRowShown="0" headerRowDxfId="4">
-  <autoFilter ref="A2:D13"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="표2" displayName="표2" ref="A2:D15" totalsRowShown="0" headerRowDxfId="4">
+  <autoFilter ref="A2:D15"/>
   <tableColumns count="4">
     <tableColumn id="1" name="번호" dataDxfId="3"/>
     <tableColumn id="2" name="문제" dataDxfId="2"/>
@@ -618,10 +630,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:D13"/>
+  <dimension ref="A2:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -772,11 +784,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>10</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C12" s="7">
@@ -798,6 +810,25 @@
       </c>
       <c r="D13" s="1" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A15" s="3">
+        <v>79</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="7">
+        <v>180</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
